--- a/out.xlsx
+++ b/out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\python\msBusGov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python\statbusgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD14815-7F4A-483E-8579-44C7CF2C09E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BEB837-2614-4B05-9FCC-B25B22E18DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5ED4A05B-0EDD-44D7-8C45-34DF52FD2494}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5ED4A05B-0EDD-44D7-8C45-34DF52FD2494}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -747,8 +747,8 @@
   </sheetPr>
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,12 +2256,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:AF1"/>
@@ -2272,6 +2266,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python\statbusgov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\python\statbusgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BEB837-2614-4B05-9FCC-B25B22E18DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA857AB-C369-4CD2-B2F0-9295EE8A21FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5ED4A05B-0EDD-44D7-8C45-34DF52FD2494}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2102,7 @@
         <v>41</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>38</v>
@@ -2256,6 +2256,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:AF1"/>
@@ -2266,12 +2272,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\python\statbusgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA857AB-C369-4CD2-B2F0-9295EE8A21FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4166A7A-8191-40A7-A8E7-9A9645AA03A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5ED4A05B-0EDD-44D7-8C45-34DF52FD2494}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2102,7 @@
         <v>41</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>38</v>
@@ -2256,12 +2256,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:AF1"/>
@@ -2272,6 +2266,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DownLoad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310D448-F726-4001-A383-06AFF18AE473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC806739-CDA3-4370-B9C4-82A73A91C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1BA08D57-4EE9-4F81-988C-DAB1982D8C01}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{1BA08D57-4EE9-4F81-988C-DAB1982D8C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,6 +418,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426C3D40-F987-49BC-823C-CF60C8A153FF}">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="U13" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +959,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -995,10 +1007,10 @@
       <c r="P3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S3" s="2" t="s">
@@ -1022,8 +1034,8 @@
       <c r="Y3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>39</v>
+      <c r="Z3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>43</v>
@@ -1034,24 +1046,24 @@
       <c r="AC3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>39</v>
+      <c r="AD3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>349</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1090,19 +1102,19 @@
       <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -1126,8 +1138,8 @@
       <c r="Y4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>39</v>
+      <c r="Z4" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>43</v>
@@ -1138,14 +1150,14 @@
       <c r="AC4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>39</v>
+      <c r="AD4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>39</v>
@@ -1155,7 +1167,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>579</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1194,17 +1206,17 @@
       <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>39</v>
+      <c r="N5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>39</v>
+      <c r="P5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>42</v>
@@ -1230,8 +1242,8 @@
       <c r="Y5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>39</v>
+      <c r="Z5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>43</v>
@@ -1242,24 +1254,24 @@
       <c r="AC5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>39</v>
+      <c r="AD5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>609</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1298,17 +1310,17 @@
       <c r="M6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>39</v>
+      <c r="N6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>39</v>
+      <c r="P6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>42</v>
@@ -1356,14 +1368,14 @@
         <v>39</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>625</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1402,17 +1414,17 @@
       <c r="M7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>39</v>
+      <c r="N7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>39</v>
+      <c r="P7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>42</v>
@@ -1460,14 +1472,14 @@
         <v>39</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>1027</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1506,17 +1518,17 @@
       <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>39</v>
+      <c r="N8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>39</v>
+      <c r="P8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>42</v>
@@ -1542,8 +1554,8 @@
       <c r="Y8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>39</v>
+      <c r="Z8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>43</v>
@@ -1554,24 +1566,24 @@
       <c r="AC8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>39</v>
+      <c r="AD8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>1351</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1610,17 +1622,17 @@
       <c r="M9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>39</v>
+      <c r="N9" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>39</v>
+      <c r="P9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>42</v>
@@ -1668,14 +1680,14 @@
         <v>39</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>1480</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1750,8 +1762,8 @@
       <c r="Y10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="2" t="s">
-        <v>39</v>
+      <c r="Z10" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>43</v>
@@ -1762,24 +1774,24 @@
       <c r="AC10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>39</v>
+      <c r="AD10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>1481</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1854,8 +1866,8 @@
       <c r="Y11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>39</v>
+      <c r="Z11" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>43</v>
@@ -1866,24 +1878,24 @@
       <c r="AC11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>39</v>
+      <c r="AD11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>1564</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1958,8 +1970,8 @@
       <c r="Y12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="2" t="s">
-        <v>39</v>
+      <c r="Z12" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>43</v>
@@ -1970,24 +1982,24 @@
       <c r="AC12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>39</v>
+      <c r="AD12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>1574</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2062,8 +2074,8 @@
       <c r="Y13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z13" s="2" t="s">
-        <v>39</v>
+      <c r="Z13" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>43</v>
@@ -2074,20 +2086,20 @@
       <c r="AC13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>39</v>
+      <c r="AD13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="135" x14ac:dyDescent="0.25">
@@ -2130,8 +2142,8 @@
       <c r="M14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>39</v>
+      <c r="N14" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>42</v>
@@ -2145,8 +2157,8 @@
       <c r="R14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>39</v>
+      <c r="S14" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>39</v>
@@ -2166,17 +2178,17 @@
       <c r="Y14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>39</v>
+      <c r="Z14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>43</v>
@@ -2188,10 +2200,10 @@
         <v>43</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="135" x14ac:dyDescent="0.25">
@@ -2234,8 +2246,8 @@
       <c r="M15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>39</v>
+      <c r="N15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>42</v>
@@ -2249,8 +2261,8 @@
       <c r="R15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>39</v>
+      <c r="S15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>39</v>
@@ -2270,17 +2282,17 @@
       <c r="Y15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>39</v>
+      <c r="Z15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>43</v>
@@ -2292,10 +2304,10 @@
         <v>43</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC806739-CDA3-4370-B9C4-82A73A91C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8FF15-C639-4AE8-BFE2-9A708279C2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{1BA08D57-4EE9-4F81-988C-DAB1982D8C01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BA08D57-4EE9-4F81-988C-DAB1982D8C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -413,17 +413,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426C3D40-F987-49BC-823C-CF60C8A153FF}">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U13" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,147 +751,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="4" t="s">
+      <c r="U1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1007,10 +1007,10 @@
       <c r="P3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S3" s="2" t="s">
@@ -1034,8 +1034,8 @@
       <c r="Y3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>42</v>
+      <c r="Z3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>43</v>
@@ -1046,14 +1046,14 @@
       <c r="AC3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>42</v>
+      <c r="AD3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>42</v>
@@ -1063,7 +1063,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>349</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1102,19 +1102,19 @@
       <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="7" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -1138,7 +1138,7 @@
       <c r="Y4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
@@ -1150,14 +1150,14 @@
       <c r="AC4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>42</v>
+      <c r="AD4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>39</v>
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>579</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1206,62 +1206,62 @@
       <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>42</v>
+      <c r="N5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>42</v>
@@ -1271,7 +1271,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>609</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1310,17 +1310,17 @@
       <c r="M6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>42</v>
+      <c r="N6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>42</v>
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>625</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1414,17 +1414,17 @@
       <c r="M7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>42</v>
+      <c r="N7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>42</v>
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>1027</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1518,62 +1518,62 @@
       <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>42</v>
+      <c r="N8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>42</v>
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>1351</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1622,17 +1622,17 @@
       <c r="M9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>42</v>
+      <c r="N9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>42</v>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>1480</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1762,26 +1762,26 @@
       <c r="Y10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>42</v>
+      <c r="Z10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>39</v>
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>1481</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1866,26 +1866,26 @@
       <c r="Y11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>42</v>
+      <c r="Z11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>39</v>
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>1564</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1970,26 +1970,26 @@
       <c r="Y12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>42</v>
+      <c r="Z12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>39</v>
@@ -1999,7 +1999,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1574</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2074,26 +2074,26 @@
       <c r="Y13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>42</v>
+      <c r="Z13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>39</v>
@@ -2142,7 +2142,7 @@
       <c r="M14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -2157,8 +2157,8 @@
       <c r="R14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>42</v>
+      <c r="S14" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>39</v>
@@ -2178,17 +2178,17 @@
       <c r="Y14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>42</v>
+      <c r="Z14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>43</v>
@@ -2246,7 +2246,7 @@
       <c r="M15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -2261,7 +2261,7 @@
       <c r="R15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -2282,16 +2282,16 @@
       <c r="Y15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC15" s="6" t="s">
+      <c r="Z15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AD15" s="2" t="s">
@@ -2312,12 +2312,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:AF1"/>
@@ -2328,6 +2322,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/out.xlsx
+++ b/out.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8FF15-C639-4AE8-BFE2-9A708279C2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1367997-E0A2-4FB4-B2C7-F198400C1DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BA08D57-4EE9-4F81-988C-DAB1982D8C01}"/>
   </bookViews>
@@ -351,7 +351,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426C3D40-F987-49BC-823C-CF60C8A153FF}">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,8 +1120,8 @@
       <c r="P4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>42</v>
+      <c r="Q4" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>42</v>
@@ -1138,8 +1147,8 @@
       <c r="Y4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>42</v>
+      <c r="Z4" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>43</v>
@@ -2178,14 +2187,14 @@
       <c r="Y14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>42</v>
+      <c r="Z14" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AB14" s="4" t="s">
-        <v>42</v>
+      <c r="AB14" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>39</v>
@@ -2261,8 +2270,8 @@
       <c r="R15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>42</v>
+      <c r="S15" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>39</v>
@@ -2282,17 +2291,17 @@
       <c r="Y15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>42</v>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>43</v>
@@ -2312,6 +2321,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:AF1"/>
@@ -2322,12 +2337,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/out.xlsx
+++ b/out.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1367997-E0A2-4FB4-B2C7-F198400C1DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3CA7E-2AA3-4965-9F6A-EED775F4368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BA08D57-4EE9-4F81-988C-DAB1982D8C01}"/>
   </bookViews>
@@ -425,14 +425,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426C3D40-F987-49BC-823C-CF60C8A153FF}">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,147 +760,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="6" t="s">
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="6" t="s">
+      <c r="U1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -1120,7 +1120,7 @@
       <c r="P4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R4" s="5" t="s">
@@ -1147,7 +1147,7 @@
       <c r="Y4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AA4" s="3" t="s">
@@ -2187,13 +2187,13 @@
       <c r="Y14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="Z14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AB14" s="8" t="s">
+      <c r="AB14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AC14" s="5" t="s">
@@ -2255,8 +2255,8 @@
       <c r="M15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>42</v>
+      <c r="N15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>42</v>
@@ -2270,7 +2270,7 @@
       <c r="R15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -2291,16 +2291,16 @@
       <c r="Y15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC15" s="8" t="s">
+      <c r="Z15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AD15" s="2" t="s">
@@ -2321,12 +2321,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:AF1"/>
@@ -2337,6 +2331,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
